--- a/doc/excel/干部/[sample_cadre]领导干部录入样表.xlsx
+++ b/doc/excel/干部/[sample_cadre]领导干部录入样表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA80D18-0F7E-455F-BF69-A67F6F1E7DAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B43B759-4D8F-4F31-BEAB-1DF1FCB960A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4830" yWindow="8970" windowWidth="26670" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>工作证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,13 +74,17 @@
   </si>
   <si>
     <t>机关干部</t>
+  </si>
+  <si>
+    <t>1、双肩挑单位选填（可以织田双肩挑单位编码）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,26 +126,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -168,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -189,16 +199,29 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -537,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B6" sqref="B6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,10 +572,11 @@
     <col min="2" max="3" width="11.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="11" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -568,19 +592,19 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -603,19 +627,52 @@
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="2"/>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:F9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{FBAA0C9F-8F0E-4F43-88A1-ACE89B99EF16}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{0C467E1A-F16F-4F02-9587-BF3493A1619E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C10:C1048576" xr:uid="{0C467E1A-F16F-4F02-9587-BF3493A1619E}">
       <formula1>"院系干部,机关干部"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/excel/干部/[sample_cadre]领导干部录入样表.xlsx
+++ b/doc/excel/干部/[sample_cadre]领导干部录入样表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B43B759-4D8F-4F31-BEAB-1DF1FCB960A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2715" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>工作证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,17 +73,13 @@
   </si>
   <si>
     <t>机关干部</t>
-  </si>
-  <si>
-    <t>1、双肩挑单位选填（可以织田双肩挑单位编码）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,14 +130,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -178,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -210,17 +197,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -315,23 +293,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -367,23 +328,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,11 +503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,22 +530,22 @@
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="10" t="s">
@@ -633,46 +577,13 @@
       <c r="I2" s="11"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:F9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{FBAA0C9F-8F0E-4F43-88A1-ACE89B99EF16}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C10:C1048576" xr:uid="{0C467E1A-F16F-4F02-9587-BF3493A1619E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C6:C1048576">
       <formula1>"院系干部,机关干部"</formula1>
     </dataValidation>
   </dataValidations>
